--- a/4 четверть_9_JavaScript_Vue 3.xlsx
+++ b/4 четверть_9_JavaScript_Vue 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E996ACE-0E7B-449B-9B57-C807ACC0C933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF03E18-17C2-4D2D-9C4A-A43CD58FFF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -68,6 +68,9 @@
       <t xml:space="preserve"> Зайти в браузер - интсрументы разработчика и в консоли написать Vue. Если браузер вернет объект VUE, значит подключен
 </t>
     </r>
+  </si>
+  <si>
+    <t>02 10 00</t>
   </si>
 </sst>
 </file>
@@ -130,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +164,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -175,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -210,6 +219,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -547,7 +559,7 @@
   <dimension ref="A2:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,6 +645,9 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C6" s="9"/>
+      <c r="D6" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C7" s="9"/>

--- a/4 четверть_9_JavaScript_Vue 3.xlsx
+++ b/4 четверть_9_JavaScript_Vue 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF03E18-17C2-4D2D-9C4A-A43CD58FFF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A63E0D-6D22-490C-A036-03313995456B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -70,19 +70,206 @@
     </r>
   </si>
   <si>
-    <t>02 10 00</t>
+    <t>Директивы</t>
+  </si>
+  <si>
+    <t>02 10 00 - https://vuejs.org/api/built-in-directives.html</t>
+  </si>
+  <si>
+    <t>Заполнить</t>
+  </si>
+  <si>
+    <t>v-html</t>
+  </si>
+  <si>
+    <t>v-show</t>
+  </si>
+  <si>
+    <t>v-if</t>
+  </si>
+  <si>
+    <t>v-else</t>
+  </si>
+  <si>
+    <t>v-else-if</t>
+  </si>
+  <si>
+    <t>v-for</t>
+  </si>
+  <si>
+    <t>v-on</t>
+  </si>
+  <si>
+    <t>v-bind</t>
+  </si>
+  <si>
+    <t>v-model</t>
+  </si>
+  <si>
+    <t>v-slot</t>
+  </si>
+  <si>
+    <t>v-pre</t>
+  </si>
+  <si>
+    <t>v-once</t>
+  </si>
+  <si>
+    <t>v-memo</t>
+  </si>
+  <si>
+    <t>v-cloak</t>
+  </si>
+  <si>
+    <t>2 12 00</t>
+  </si>
+  <si>
+    <t>v-text</t>
+  </si>
+  <si>
+    <t>2 13 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2 16 00</t>
+  </si>
+  <si>
+    <t>2 18 00</t>
+  </si>
+  <si>
+    <t>2 19 00</t>
+  </si>
+  <si>
+    <t>2 28 00</t>
+  </si>
+  <si>
+    <t>2 31 00</t>
+  </si>
+  <si>
+    <t>2 30 00</t>
+  </si>
+  <si>
+    <t>click.stop</t>
+  </si>
+  <si>
+    <t>02 35 08</t>
+  </si>
+  <si>
+    <t>2 21 00
+2 36 00 - key</t>
+  </si>
+  <si>
+    <t>Фильтрация списков</t>
+  </si>
+  <si>
+    <t>02 40 00</t>
+  </si>
+  <si>
+    <t>Разные модификаторы событий</t>
+  </si>
+  <si>
+    <t>ничего интересного</t>
+  </si>
+  <si>
+    <t>02 43 00 - https://vuejs.org/guide/essentials/event-handling.html</t>
+  </si>
+  <si>
+    <t>Вызов нескольких функций</t>
+  </si>
+  <si>
+    <t>02 54 00</t>
+  </si>
+  <si>
+    <t>Свойство template</t>
+  </si>
+  <si>
+    <t>02 59 00</t>
+  </si>
+  <si>
+    <t>Второй способ создания html</t>
+  </si>
+  <si>
+    <t>03 14 00</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>03 15 00</t>
+  </si>
+  <si>
+    <t>Жизненный цикл компонента</t>
+  </si>
+  <si>
+    <t>03 26 00 - https://vuejs.org/guide/essentials/application.html#the-application-instance</t>
+  </si>
+  <si>
+    <t>Создание нескольких приложений</t>
+  </si>
+  <si>
+    <t>03 33 00</t>
+  </si>
+  <si>
+    <t>Работа с CLI</t>
+  </si>
+  <si>
+    <t>03 43 00</t>
+  </si>
+  <si>
+    <t>Обзор проекта</t>
+  </si>
+  <si>
+    <t>03 55 00</t>
+  </si>
+  <si>
+    <t>Работа с Vue UI</t>
+  </si>
+  <si>
+    <t>04 04 00</t>
+  </si>
+  <si>
+    <t>Работа с VsCode</t>
+  </si>
+  <si>
+    <t>04 09 00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,9 +369,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -195,33 +382,42 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -556,10 +752,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V17"/>
+  <dimension ref="A2:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -644,46 +840,237 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="13" t="s">
-        <v>7</v>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C7" s="9"/>
+      <c r="B7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C8" s="9"/>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C14" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/4 четверть_9_JavaScript_Vue 3.xlsx
+++ b/4 четверть_9_JavaScript_Vue 3.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A63E0D-6D22-490C-A036-03313995456B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111F50DD-3AE5-453B-872A-9FCA1D1831BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3225" yWindow="-17760" windowWidth="27330" windowHeight="12000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
+    <sheet name="База" sheetId="12" r:id="rId1"/>
+    <sheet name="Vue Css" sheetId="13" r:id="rId2"/>
+    <sheet name="Внутренности" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="204">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -76,9 +81,6 @@
     <t>02 10 00 - https://vuejs.org/api/built-in-directives.html</t>
   </si>
   <si>
-    <t>Заполнить</t>
-  </si>
-  <si>
     <t>v-html</t>
   </si>
   <si>
@@ -97,27 +99,15 @@
     <t>v-for</t>
   </si>
   <si>
-    <t>v-on</t>
-  </si>
-  <si>
-    <t>v-bind</t>
-  </si>
-  <si>
     <t>v-model</t>
   </si>
   <si>
-    <t>v-slot</t>
-  </si>
-  <si>
     <t>v-pre</t>
   </si>
   <si>
     <t>v-once</t>
   </si>
   <si>
-    <t>v-memo</t>
-  </si>
-  <si>
     <t>v-cloak</t>
   </si>
   <si>
@@ -130,9 +120,6 @@
     <t>2 13 50</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>2 16 00</t>
   </si>
   <si>
@@ -149,30 +136,15 @@
   </si>
   <si>
     <t>2 30 00</t>
-  </si>
-  <si>
-    <t>click.stop</t>
-  </si>
-  <si>
-    <t>02 35 08</t>
   </si>
   <si>
     <t>2 21 00
 2 36 00 - key</t>
   </si>
   <si>
-    <t>Фильтрация списков</t>
-  </si>
-  <si>
-    <t>02 40 00</t>
-  </si>
-  <si>
     <t>Разные модификаторы событий</t>
   </si>
   <si>
-    <t>ничего интересного</t>
-  </si>
-  <si>
     <t>02 43 00 - https://vuejs.org/guide/essentials/event-handling.html</t>
   </si>
   <si>
@@ -234,18 +206,3673 @@
   </si>
   <si>
     <t>04 09 00</t>
+  </si>
+  <si>
+    <t>00 44 00</t>
+  </si>
+  <si>
+    <t>Необходимо выбрать корневой элемент в шаблоне</t>
+  </si>
+  <si>
+    <t>00 48 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В метод app передается css selector корневого элемента
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.js
+Vue.createApp({
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //настройки приложения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">index.html
+&lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id="app"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;  &lt;/div&gt; указываем селектор id = app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.js
+const App = {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data() {
+  return {
+   counter: 0 
+  }
+ }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}
+Vue.createApp(App)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 49 00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.js
+Vue.createApp({
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//настройки приложения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}).mount(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'#app'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>mount('#app')</t>
+  </si>
+  <si>
+    <t>&lt;div id="app"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Vue.createApp({})</t>
+  </si>
+  <si>
+    <t>Интерполяция {{ }}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Интерполяция связывает шаблон и app.js
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ко всем values метода data() применяется JSON.stringify() при использовании интерполяции</t>
+    </r>
+  </si>
+  <si>
+    <t>00 47 00
+00 53 00</t>
+  </si>
+  <si>
+    <r>
+      <t>index.html
+&lt;h1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{ counter }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/h1&gt; - интерполяция
+&lt;h1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {{ counter +2 }} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/h1&gt; - интерполяция
+&lt;h1&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{ (counter +2) * 3 }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/h1&gt; - интерполяция</t>
+    </r>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>00 56 00</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">data() обязательно должен возвращать Object c переменными, которые должны отображаться в шаблоне html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Примечание!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Все values называются модельками по Vuejs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ко всем values метода data() применяется JSON.stringify() при использовании интерполяции</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.js
+const App = {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data() {
+  return {
+   placeholderString: "Введите название заметки"
+  }
+ }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}
+Vue.createApp(App)</t>
+    </r>
+  </si>
+  <si>
+    <t>01 02 00</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;input type=text" v-bind</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:placeholder="placeholderString"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/&gt;
+&lt;button&gt;Добавить&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>01 06 00</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;input type=text" v-bind:placeholder="placeholderString"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+v-bind:v-value="inputValue"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/&gt;
+&lt;button&gt;Добавить&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В данном случае любой вводимый текст в input не изменит значение value, так как они никак друг на друга не влияют</t>
+    </r>
+  </si>
+  <si>
+    <t>01 08 00</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;input type=text" v-bind:placeholder="placeholderString"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-bind:v-value="inputValue"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+v-on:input="inputChangeHandler"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/&gt;
+&lt;button&gt;Добавить&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.js
+const App = {
+ data() {
+  return {
+   placeholderString: "Введите название заметки",
+   inputValue: "",
+  }
+ },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> methods: {
+  inputChangeHandler(event) {
+   this.inputValue = event.target.value
+  }
+ }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}
+Vue.createApp(App)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>inputChangeHandler(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) {
+   this.inputValue = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>event.target.value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вариант 1
+Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Любое событие имеет нативный объект event, который передается в метод
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> this в данном контексте обращается к объекту App, который содержит реализацию data(), methods итд</t>
+    </r>
+  </si>
+  <si>
+    <t>Двустороннее связывание</t>
+  </si>
+  <si>
+    <t>Работа со списками в шаблоне</t>
+  </si>
+  <si>
+    <t>01 17 00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;ul&gt;
+ &lt;li </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-for="myNote in notes"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;{{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myNote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }}&lt;li&gt;
+ &lt;li </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-for="myNote of notes"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;{{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myNote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }}&lt;li&gt;
+&lt;/ul&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Примечание!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In и of в контексте vue означает одно и тоже</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Примечание!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> myNote доступен только стеке цикла</t>
+    </r>
+  </si>
+  <si>
+    <t>01 20 00</t>
+  </si>
+  <si>
+    <t>&lt;button v-on:click="addNewNote"&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.js
+const App = {
+ data() {
+  return {
+   placeholderString: "Введите название заметки",
+   inputValue: "",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   notes: ['Заметка 1', 'Заметка 2']
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  }
+ },
+ methods: {
+ }
+}
+Vue.createApp(App)</t>
+    </r>
+  </si>
+  <si>
+    <t>v-on:keypress="inputKeyPress"</t>
+  </si>
+  <si>
+    <t>Вариан 1</t>
+  </si>
+  <si>
+    <t>Вариант 2</t>
+  </si>
+  <si>
+    <t>v-on:keypress.enter="inputKeyPress"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Удобно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если нужно проверить пустой или нет список для принятия решения отображать или нет его</t>
+    </r>
+  </si>
+  <si>
+    <t>v-if="notes.length"</t>
+  </si>
+  <si>
+    <t>01 33 00</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;input type=text" 
+v-bind:placeholder="placeholderString"
+v-bind:v-value="inputValue"
+v-on:input="inputChangeHandler"
+/&gt;
+&lt;button v-on:click="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>addNewNote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;Добавить&lt;/button&gt;
+&lt;ul&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;li v-for="myNote in notes"&gt;{{ myNote }}&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/ul&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Удаление выбранной записи</t>
+  </si>
+  <si>
+    <t>v-on:click="removeNote(idx)"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;ul&gt;
+ &lt;li v-for="(myNote, idx) in notes"&gt;
+  ({{ idx + 1 }}) {{ myNote }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;button v-on:click="removeNote(idx)"&gt;удалить&lt;/button&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  &lt;li&gt;
+&lt;/ul&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;ul v-if="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>notes.length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;
+&lt;ul v-if="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>notes.length !== 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;
+&lt;ul v-else&gt;
+ &lt;li v-for="myNote in notes"&gt;{{ myNote }}&lt;li&gt;
+&lt;/ul&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">01 39 00
+ methods: {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  toUpperCase(item) {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> item.toUpperCase();
+  }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+  </si>
+  <si>
+    <t>v-on:click="counter"
+@:click="counter"</t>
+  </si>
+  <si>
+    <t>работа с атрибутами
+v-bind:placeholder="placeholderString"
+:placeholder="placeholderString"</t>
+  </si>
+  <si>
+    <t>v-bind:v-value="inputValue"
+:v-value="inputValue"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Интерполяция с методом {{ }} - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>не опитмально!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Интерполяция с </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>computed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {{ }} - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>лучший вариант</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">index.html
+&lt;h1&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{ toUpperCase(item) }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;/h1&gt; - интерполяция
+Вычисляемые свойства (computed) — кэшируются и пересчитываются только тогда, когда их зависимости меняются.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Не делать так! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Использовать computed вместо methods
+Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Чтобы метод вызываемый в интерполяции что-то (должно иметь возвможность быть преобразованым в строку) возвращал, требуется наличие return
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Это очень опасно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Если мы устанавливаем метод внутри интерполяции, то он будет вызываться каждый раз , когда происходит re-render шаблона компонента, то есть при любом событии input итд</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Гораздо оптимальнее</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> использовать computed свойства вместо методов!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Вычисляемые свойства (computed) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— кэшируются и пересчитываются только тогда, когда их зависимости меняются.</t>
+    </r>
+  </si>
+  <si>
+    <t>01 48 00</t>
+  </si>
+  <si>
+    <r>
+      <t>app.js
+const App = {
+ data() {
+  return {
+   placeholderString: "Введите название заметки",
+   inputValue: "",
+   notes: ['Заметка 1', 'Заметка 2']</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  }
+ },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>app.js
+const App = {
+ data() {
+  return {
+   placeholderString: "Введите название заметки",
+   inputValue: "",
+   notes: ['Заметка 1', 'Заметка 2']</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  }
+ },
+…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;input type=text" 
+v-bind:placeholder="placeholderString"
+v-bind:v-value="inputValue"
+v-on:input="inputChangeHandler"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-on:keypress.enter="inputKeyPress"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/&gt;
+…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> methods: {
+  inputChangeHandler(event) {
+   this.inputValue = event.target.value
+  },
+  addNewNote() {
+   this.notes.push(this.inputValue);
+   this.inputValue = ''
+  },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  inputKeyPress(event) {
+  if (event.key = 'Enter') this.addNewNote();
+  }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }
+}
+Vue.createApp(App)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> methods: {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  inputKeyPress() {
+   this.addNewNote();
+  }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }
+}
+Vue.createApp(App)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;input type=text" 
+v-bind:placeholder="placeholderString"
+v-bind:v-value="inputValue"
+v-on:input="inputChangeHandler"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-on:keypress="inputKeyPress"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/&gt;
+…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>01 24 00
+&lt;button v-on:click="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>addNewNote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;Добавить&lt;/button&gt;
+&lt;ul&gt;
+ &lt;li v-for="myNote in notes"&gt;{{ myNote }}&lt;li&gt;
+ &lt;li v-for="myNote of notes"&gt;{{ myNote }}&lt;li&gt;
+&lt;/ul&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> methods: {
+  inputChangeHandler(event) {
+   this.inputValue = event.target.value
+  }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  addNewNote(event) {
+   this.notes.push(this.inputValue);
+   this.inputValue = '' </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//чтобы чистить input после ввода очередного значения</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }
+}
+Vue.createApp(App)</t>
+    </r>
+  </si>
+  <si>
+    <t>Нажатие кнопок</t>
+  </si>
+  <si>
+    <t>computed</t>
+  </si>
+  <si>
+    <t>methods: {}</t>
+  </si>
+  <si>
+    <t>01 48 55</t>
+  </si>
+  <si>
+    <t>watch: {}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Позволяет следить за изменениями значений любых пременных</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const App = {
+ data() {
+  return {
+   placeholderString: "Введите название заметки",
+   inputValue: "",
+   notes: ['Заметка 1', 'Заметка 2']
+  }
+ },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> watch: {
+  inputValue(newValue, oldValue) {
+   console.log('input Value changed',newValue )
+ }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const App = {
+ data() {
+  return {
+   placeholderString: "Введите название заметки",
+   inputValue: "",
+   notes: ['Заметка 1', 'Заметка 2']
+  }
+ },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> watch: {
+  inputValue(newValue, oldValue) {
+   if (newValue.length &gt; 10) this.inputValue = '';
+ }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>01 53 00</t>
+  </si>
+  <si>
+    <t>Было</t>
+  </si>
+  <si>
+    <t>Стало</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.js
+const App = {
+ data() {
+  return {
+   placeholderString: "Введите название заметки",
+   inputValue: "",
+  }
+ },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> methods: {
+  inputChangeHandler(event) {
+   this.inputValue = event.target.value
+  }
+ }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}
+Vue.createApp(App)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;input type=text" 
+v-bind:placeholder="placeholderString"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v-bind:v-value="inputValue"
+v-on:input="inputChangeHandler"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-model="inputValue"</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-on:keypress.enter="inputKeyPress"
+/&gt;
+…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> заменяет </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-value + @change/@input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> позволяя не прописывать реализацию </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@change/@input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>Vue Css</t>
+  </si>
+  <si>
+    <t>Вариант 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">data() {
+        return {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            activeStyleColor: {
+                backgroundColor: "#409EFF",
+                borderColor: "#409EFF",
+                color: "#fff",
+            },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        };
+    },</t>
+    </r>
+  </si>
+  <si>
+    <t>Вариант 3</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;el-button</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :style="condformattingobj.colorformatting?.active ? activeStyleColor : {}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; &lt;/el-button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;button 
+         v-bind:class="
+        {
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'btn-danger': colorEdit &amp;&amp; baseSettings.editUserCurrentSetting,
+          'btn-default': !colorEdit || !baseSettings.editUserCurrentSetting, 
+          'btn-primary': colorEdit &amp;&amp; !baseSettings.editUserCurrentSetting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+         }
+       "
+&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;button 
+        v-bind:class="[
+           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'custom_class_1',
+            {'btn-danger': !colorEdit || !baseSettings.editUserCurrentSetting}, 
+           colorEdit &amp;&amp; baseSettings.editUserCurrentSetting ? 'btn-danger' : null </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+         ]"
+&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>inline стили</t>
+  </si>
+  <si>
+    <t>один class</t>
+  </si>
+  <si>
+    <t>несколько class</t>
+  </si>
+  <si>
+    <t>классы</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;template&gt;
+  &lt;button :class="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buttonClass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;Кнопка&lt;/button&gt;
+&lt;/template&gt;
+&lt;script&gt;
+export default {
+  computed: {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    buttonClass() {
+      return this.checkBtn(this.table.TableNameReal) 
+        ? 'btn-primary' 
+        : 'hwc-btn-unactive';
+    }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  }
+}
+&lt;/script&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;button  v-bind:class="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{'btn-danger': !colorEdit || !baseSettings.editUserCurrentSetting}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "&gt; &lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Подход 1</t>
+  </si>
+  <si>
+    <t>Подход 2</t>
+  </si>
+  <si>
+    <t>Микс подход</t>
+  </si>
+  <si>
+    <t>несколько стилей</t>
+  </si>
+  <si>
+    <t>несколько стилей с условиями</t>
+  </si>
+  <si>
+    <t>несколько стилей, комбинированных в объект</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;el-button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:style="{
+  backgroundColor: item.length === 0 ? "#409EFF" : "#FFF", 
+  …
+}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &lt;/el-button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;el-button</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :style="{
+  backgroundColor: "#409EFF", 
+  …
+}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; &lt;/el-button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;button  v-bind:class=" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>colorEdit  ? 'btn-danger' : null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "&gt; &lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;button 
+         v-bind:class="
+        [
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">colorEdit ? 'btn-danger' : null ,
+          colorEdit ? 'btn-danger' : null </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+         ]
+       "
+&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>несколько class - массив классов</t>
+  </si>
+  <si>
+    <t>несколько class - объект классов</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.js
+const App = {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data: () =&gt; ({
+   counter: 0 
+ })
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}
+Vue.createApp(App)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.js
+const App = {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data: () =&gt; {
+   return {
+     counter: 0 
+   }
+ }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}
+Vue.createApp(App)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Вариант 2 - стрелочная функция с return </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вариант 3 - стрелочная функция без return </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение - удобно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если мы опускаем return , значит внутри фигурных скобок уже </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>не стэк вызова функции</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>а сам object, который мы возвращаем в return</t>
+    </r>
+  </si>
+  <si>
+    <t>data() { return {}}</t>
+  </si>
+  <si>
+    <t>data: () =&gt;  { return {...}}</t>
+  </si>
+  <si>
+    <t>data: () =&gt;  ({...})</t>
+  </si>
+  <si>
+    <t>data() { return {...}}</t>
+  </si>
+  <si>
+    <t>Устанавливает текстовое содержимое элемента (аналог textContent).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;p </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-text="message"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&lt;/p&gt; &lt;!-- эквивалентно </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{{ message }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Рендерит элемент или компонент только один раз. Последующие обновления данных его не затрагивают.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сколько бы мы не меняли переменную staticMessage, ее значение будет меняться, но не в тэге span c директивой v-once</t>
+    </r>
+  </si>
+  <si>
+    <t>Пропускает компиляцию шаблона для элемента и его дочерних узлов. Полезно для отображения "сырого" Mustache-синтаксиса.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;span </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-pre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;{{ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }}&lt;/span&gt; &lt;!-- будет отрендерено как {{ title }} --&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;span </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-once</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;{{ staticMessage }}&lt;/span&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-html="rawHtml"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Вставляет HTML-контент напрямую в элемент (innerHTML).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rawHtml - это строка, внутри которой написан синтаксис html разметки</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div v-cloak&gt;{{ message }}&lt;/div&gt;
+[v-cloak] { display: none; }
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Скрывает нерендеренный шаблон до тех пор, пока Vue не завершит инициализацию. Обычно используется с CSS.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Так как vue подгружается после html, то возможно появление артефактов в виже подмигиваний сайта. Эта директива обычна вешается на корневой компонент проекта и заставляет html рендерится только после того, как отработает vue
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение к css!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Директива v-cloak изсчезает из html как только vue будет прогружен, а значит и стиль display:none окажется временным</t>
+    </r>
+  </si>
+  <si>
+    <t>Рендерит список элементов на основе массива или объекта.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;li </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-for="item in items" :key="item.id"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;{{ item.name }}&lt;/li&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Item это числа от 1 до 7
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Выведет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 01, 12, 23 …</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;li </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-for="(item, idx) in 7"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;{{ idx }} {{ item }}&lt;/li&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;li </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-for="item in 7"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;{{ item }}&lt;/li&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение - удобно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если мы передадим v-for объект, то он сам правильно возмет value и key без необходимости переводить объект в список</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">data: () =&gt; ({
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">person : {
+ firstName: 'Sasha',
+ lastName: 'Sergeev',
+ age: 36
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;li </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-for="(value, key) in person"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;{{ idx }} {{ item }}&lt;/li&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение - удобно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Если указать in число, то v-for поймет, что нужно вывести числа от 1 до указанного числа</t>
+    </r>
+  </si>
+  <si>
+    <t>Условно рендерит элемент (или блок), если выражение истинно. При false элемент удаляется из DOM.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-if="isVisible"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;Показано&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Условно показывает/скрывает элемент через CSS (display: none). Элемент остаётся в DOM.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-show="isVisible"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;Видимый/невидимый&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Цепочка условий, аналог else if в JavaScript.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;div v-if="type === 'A'"&gt;A&lt;/div&gt;
+&lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-else-if="type === 'B'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;B&lt;/div&gt;
+&lt;div v-else&gt;Other&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Используется вместе с v-if или v-else-if для альтернативного блока.</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;div v-if="type === 'A'"&gt;A&lt;/div&gt;
+&lt;div</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v-else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;B&lt;/div&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v-on - директива
+click - событие клика
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Примечание!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Webstorm показывает список всех возможных событий для выбранной директивы
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно - удобно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Указываем реализацию метода после клика, либо название метода с реализацией из js</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;button v-on:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>counter++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt; &lt;/button&gt;
+&lt;button v-on:click="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>counter = counter - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt; &lt;/button&gt;
+&lt;button v-on:click="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>items.splice(i,1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt; &lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>stopPropagation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Напоминание! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Любое событие, которое повешено на родительские элементы, будет всплывать от дочернего элемента выполняя уникальную логику родительских элементов.  Чтобы исключить всплытие события от какого-либо дочернего элемента, необходимо испольозовать stopPropagation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>methods: {
+ stopPropagation(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   event.stopPropagation()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ }
+}
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;li 
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v-for="(value, key) in person"
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@click="items.splice(i,1)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+ &lt;input type="text" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@click=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stopPropagation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;
+&lt;/li&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;li 
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v-for="(value, key) in person"
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@click="items.splice(i,1)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+ &lt;input type="text" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@click.stop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;
+&lt;/li&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение - удобно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Аналог event.stopPropagation(), если мы не хотим, чтобы какое-то событие всплывало по древу родительских элементов выше</t>
+    </r>
+  </si>
+  <si>
+    <t>Пояснен+A10ие! Item это числа от 1 до 7</t>
+  </si>
+  <si>
+    <t>02 44 00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,8 +3946,93 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,8 +4065,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -367,11 +4109,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -382,20 +4125,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -404,25 +4147,80 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{141A142D-D8A7-43F9-B8D2-54AA311FA1CB}"/>
+    <cellStyle name="Обычный 2 2" xfId="2" xr:uid="{6AED7C1E-16D4-4B27-9CDE-4556C8555CBE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,9 +4246,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2689412</xdr:colOff>
+      <xdr:colOff>2685602</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1376913</xdr:rowOff>
+      <xdr:rowOff>1388343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -752,44 +4550,44 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V36"/>
+  <dimension ref="A2:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.08984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.54296875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.90625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="56.90625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.6328125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.08984375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="8"/>
-    <col min="21" max="21" width="67.6328125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.453125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.453125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.54296875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.36328125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.6328125" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="8"/>
+    <col min="21" max="21" width="67.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.44140625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.5546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.33203125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -808,7 +4606,7 @@
       <c r="S2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,12 +4620,12 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,240 +4637,1195 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9"/>
+    <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="C8" s="13" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C11" s="9" t="s">
-        <v>12</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C12" s="9" t="s">
-        <v>13</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C13" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C14" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B39" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C16" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C29" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031AACE7-BBB7-40D6-880D-BFAE2A5485BC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="20" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="100.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="21" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="21" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="21" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="22"/>
+    <col min="21" max="21" width="67.77734375" style="21" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="20" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="20" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="20" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="20" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="20" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="U2" s="24"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C3" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="21"/>
+    </row>
+    <row r="5" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" ht="216" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C41A25-38CA-486A-87ED-62C44A5DF611}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:V58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="27" customWidth="1"/>
+    <col min="2" max="2" width="62.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="64.44140625" style="27" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="27" customWidth="1"/>
+    <col min="11" max="11" width="39.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="27" customWidth="1"/>
+    <col min="13" max="13" width="72.5546875" style="27" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="27" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" style="27" customWidth="1"/>
+    <col min="16" max="16" width="56.88671875" style="28" customWidth="1"/>
+    <col min="17" max="17" width="46.6640625" style="28" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="28" customWidth="1"/>
+    <col min="19" max="19" width="49.109375" style="27" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="30"/>
+    <col min="21" max="21" width="67.6640625" style="28" customWidth="1"/>
+    <col min="22" max="22" width="68.44140625" style="27" customWidth="1"/>
+    <col min="23" max="24" width="59.44140625" style="27" customWidth="1"/>
+    <col min="25" max="25" width="59.5546875" style="27" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="27" customWidth="1"/>
+    <col min="27" max="27" width="41.33203125" style="27" customWidth="1"/>
+    <col min="28" max="16384" width="8.6640625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+    </row>
+    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="32"/>
+    </row>
+    <row r="21" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="32"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C28" s="33"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="31"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="33"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="31"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="33"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="33"/>
+      <c r="D37" s="28"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="33"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="33"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="33"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="33"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C42" s="33"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C43" s="33"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C47" s="34"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C30:D44">
+    <sortCondition ref="D30:D44"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/4 четверть_9_JavaScript_Vue 3.xlsx
+++ b/4 четверть_9_JavaScript_Vue 3.xlsx
@@ -1,36 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111F50DD-3AE5-453B-872A-9FCA1D1831BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CF8C92-2B6A-4017-B66E-DECD80505FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3225" yWindow="-17760" windowWidth="27330" windowHeight="12000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="База" sheetId="12" r:id="rId1"/>
     <sheet name="Vue Css" sheetId="13" r:id="rId2"/>
-    <sheet name="Внутренности" sheetId="14" r:id="rId3"/>
+    <sheet name="Теория" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="236">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -3846,17 +3843,804 @@
   <si>
     <t>02 44 00</t>
   </si>
+  <si>
+    <t>Inline Handlers</t>
+  </si>
+  <si>
+    <t>Method Handlers</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;!-- `greet` is the name of the method defined above --&gt;
+&lt;button @click="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>greet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;Greet&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>methods: {
+  greet(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      alert(event.target.tagName)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>События</t>
+  </si>
+  <si>
+    <t>Модификаторы событий</t>
+  </si>
+  <si>
+    <t>.stop</t>
+  </si>
+  <si>
+    <t>.prevent</t>
+  </si>
+  <si>
+    <t>.self</t>
+  </si>
+  <si>
+    <t>.capture</t>
+  </si>
+  <si>
+    <t>.once</t>
+  </si>
+  <si>
+    <t>.passive</t>
+  </si>
+  <si>
+    <t>&lt;form @submit.prevent&gt;&lt;/form&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>останавливает всплытие события</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Обычно, когда ты кликаешь по элементу (например, по ссылке &lt;a&gt;), событие click не только срабатывает на этом элементе, но и "всплывает" вверх по DOM-дереву — то есть передаётся родительским элементам.
+Модификатор .stop останавливает это всплытие (вызывает event.stopPropagation()).
+Результат: обработчик doThis </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>выполнится</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, но </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>родительские элементы не узнают о клике.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;a @click.stop="doThis"&gt;&lt;/a&gt;
+Аналог: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>event.stopPropagation()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;form @submit.prevent="onSubmit"&gt;&lt;/form&gt;
+Аналог: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>event.preventDefault()</t>
+    </r>
+  </si>
+  <si>
+    <t>a @click.stop.prevent="doThat"&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>.stop.prevent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Модификаторы можно цеплять друг за друга</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Здесь сразу два действия:
+.stop — останавливает всплытие события;
+.prevent — отменяет стандартное действие (например, переход по ссылке).
+То есть: при клике ничего не произойдёт "по умолчанию", и событие не дойдёт до родителей.</t>
+    </r>
+  </si>
+  <si>
+    <t>модификатор, без метода</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Можно использовать только модификатор, без метода</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Здесь нет вызова метода — просто .prevent.
+Это значит: отмени стандартное поведение, но ничего больше не делай.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Форма не отправится</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>страница не перезагрузится</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — и всё.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>отменяет стандартное действие браузера</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+По умолчанию, когда форма отправляется (submit), браузер перезагружает страницу.
+Модификатор .prevent вызывает event.preventDefault(), то есть отменяет стандартное поведение.
+Страница </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>не перезагрузится</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, а вместо этого </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>выполнится твоя функция onSubmit.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Обработчик срабатывает только если событие произошло непосредственно на элементе, а не на его потомке.
+Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Отменяет делегирование событий потомкам
+Делегирование событий также упрощает код js (DRY принцип), так как позволяет вешать событие на все дочерние элементы, обращаясь лишь к одному родителю.</t>
+    </r>
+  </si>
+  <si>
+    <t>div.addEventListener('click', (e) =&gt; {
+  if (e.target === e.currentTarget) {
+    // Событие произошло именно на div, а не на потомке
+    handleDivClick();
+  }
+});</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@click.self="handleDivClick"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+  &lt;button&gt;Кнопка&lt;/button&gt;
+&lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Клик по &lt;button&gt; не вызовет handleDivClick, потому что событие произошло не на div, а на button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@click.capture="handleClick"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+  &lt;button&gt;Кликни меня&lt;/button&gt;
+&lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> При клике на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> сначала выполнится </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handleClick</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> на div, потом — обработчики на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (если есть).</t>
+    </r>
+  </si>
+  <si>
+    <t>div.addEventListener('click', handleClick, true); // ← true = capture phase
+Capture: от window → к целевому элементу.
+Target: само событие на элементе.
+Bubbling: от целевого элемента → вверх по DOM.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Событие обрабатывается на фазе захвата (capture), а не на фазе всплытия (bubbling).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Если вы кликните по &lt;p&gt;, то последовательность следующая:
+HTML → BODY → FORM → DIV (фаза погружения, первый обработчик - capture)
+P (фаза цели, срабатывают обработчики, установленные и на погружение и на всплытие, так что выведется два раза)
+DIV → FORM → BODY → HTML (фаза всплытия, второй обработчик - bubbling)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Обработчик сработает только один раз, а затем автоматически удалится.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+После первого клика обработчик удаляется.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@click.once="showMessage"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;Показать сообщение&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Говорит браузеру, что обработчик никогда не вызовет preventDefault().
+Это улучшает производительность (особенно для touch и wheel).
+touchstart, touchmove
+wheel
+Другие события прокрутки/жестов
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Браузер может запускать прокрутку сразу, не дожидаясь завершения обработчика → плавный скролл даже при тяжёлой логике.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@touchstart.passive="onTouch"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Полезно, когда мы не хотим, чтобы браузер дожидался окончания вызова обработчика, чтобы выполнить заложенную в него логику</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4111,10 +4895,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4125,20 +4909,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4147,78 +4931,71 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{141A142D-D8A7-43F9-B8D2-54AA311FA1CB}"/>
     <cellStyle name="Обычный 2 2" xfId="2" xr:uid="{6AED7C1E-16D4-4B27-9CDE-4556C8555CBE}"/>
   </cellStyles>
@@ -4550,44 +5327,44 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V68"/>
+  <dimension ref="A2:V71"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="56.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="8"/>
-    <col min="21" max="21" width="67.6640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.44140625" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.5546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.33203125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.08984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.90625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.54296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.90625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.90625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.6328125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.08984375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6328125" style="8"/>
+    <col min="21" max="21" width="67.6328125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.453125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.453125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.54296875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.36328125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -4606,7 +5383,7 @@
       <c r="S2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4620,12 +5397,12 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -4637,7 +5414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -4649,7 +5426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -4663,7 +5440,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -4677,14 +5454,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>163</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>134</v>
       </c>
@@ -4698,7 +5475,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>160</v>
       </c>
@@ -4710,7 +5487,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>161</v>
       </c>
@@ -4724,14 +5501,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
@@ -4745,7 +5522,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>106</v>
       </c>
@@ -4759,7 +5536,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="13" t="s">
         <v>109</v>
@@ -4768,402 +5545,426 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13" t="s">
+    <row r="24" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="12"/>
+      <c r="C24" s="13" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="13"/>
-    </row>
-    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B26" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13" t="s">
+    <row r="27" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="28" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B28" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="13" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B30" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="B31" s="12"/>
       <c r="C31" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B36" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="15" t="s">
+    <row r="37" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+      <c r="B37" s="12"/>
+      <c r="C37" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="38" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="2" t="s">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="12"/>
+      <c r="C39" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+    <row r="40" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B40" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="1" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B39" s="15" t="s">
+    <row r="42" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D42" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="1" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="44" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B44" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="45" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B45" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D45" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
     </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5181,79 +5982,79 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36" style="20" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="100.44140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="20" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="21" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="21" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="21" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="22"/>
-    <col min="21" max="21" width="67.77734375" style="21" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="20" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="20" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="20" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="20" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="20" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="20"/>
+    <col min="1" max="1" width="36" style="19" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="100.453125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="21"/>
+    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="U2" s="24"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C3" s="25" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="U2" s="23"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C3" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="21"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="P3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="20"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="21"/>
-    </row>
-    <row r="5" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="P4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="20"/>
+    </row>
+    <row r="5" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>149</v>
@@ -5263,7 +6064,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>150</v>
@@ -5273,7 +6074,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>151</v>
@@ -5285,15 +6086,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="15"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>146</v>
       </c>
@@ -5305,7 +6106,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>147</v>
       </c>
@@ -5317,7 +6118,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>146</v>
       </c>
@@ -5329,7 +6130,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>147</v>
       </c>
@@ -5341,7 +6142,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>148</v>
       </c>
@@ -5353,14 +6154,14 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="216" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5380,42 +6181,41 @@
   </sheetPr>
   <dimension ref="A2:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36" style="27" customWidth="1"/>
-    <col min="2" max="2" width="62.88671875" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="27" customWidth="1"/>
-    <col min="9" max="9" width="64.44140625" style="27" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="27" customWidth="1"/>
-    <col min="11" max="11" width="39.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="27" customWidth="1"/>
-    <col min="13" max="13" width="72.5546875" style="27" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="27" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" style="27" customWidth="1"/>
-    <col min="16" max="16" width="56.88671875" style="28" customWidth="1"/>
-    <col min="17" max="17" width="46.6640625" style="28" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="28" customWidth="1"/>
-    <col min="19" max="19" width="49.109375" style="27" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="30"/>
-    <col min="21" max="21" width="67.6640625" style="28" customWidth="1"/>
-    <col min="22" max="22" width="68.44140625" style="27" customWidth="1"/>
-    <col min="23" max="24" width="59.44140625" style="27" customWidth="1"/>
-    <col min="25" max="25" width="59.5546875" style="27" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="27" customWidth="1"/>
-    <col min="27" max="27" width="41.33203125" style="27" customWidth="1"/>
-    <col min="28" max="16384" width="8.6640625" style="27"/>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.08984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.90625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.54296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.90625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="56.90625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.6328125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.08984375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="67.6328125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.453125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.453125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.54296875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.36328125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="G2" s="5"/>
@@ -5423,401 +6223,505 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="36"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="28"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="32"/>
-    </row>
-    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="15" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="32"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-    </row>
-    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C19" s="32" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="C19" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="32"/>
-    </row>
-    <row r="20" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="D20" s="32"/>
-    </row>
-    <row r="21" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D21" s="32"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32" t="s">
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C28" s="33"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C29" s="31"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="33"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="31"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C35" s="33"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="33"/>
-      <c r="D37" s="28"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="33"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="33"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="33"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" s="33"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="33"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C43" s="33"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="34"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="28" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C37" s="9"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C43" s="9"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C47" s="27"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="28" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="28" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="35" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C51" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="27" t="s">
+      <c r="D51" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="28" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="28" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="28" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="28" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="28" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="27" t="s">
+      <c r="D56" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="28" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B57" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="28" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B58" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="1" t="s">
         <v>50</v>
       </c>
     </row>

--- a/4 четверть_9_JavaScript_Vue 3.xlsx
+++ b/4 четверть_9_JavaScript_Vue 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CF8C92-2B6A-4017-B66E-DECD80505FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE60BE8-B58D-4B39-A6E5-BC8D550376E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="База" sheetId="12" r:id="rId1"/>
@@ -22,12 +22,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="273">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -139,13 +142,7 @@
 2 36 00 - key</t>
   </si>
   <si>
-    <t>Разные модификаторы событий</t>
-  </si>
-  <si>
     <t>02 43 00 - https://vuejs.org/guide/essentials/event-handling.html</t>
-  </si>
-  <si>
-    <t>Вызов нескольких функций</t>
   </si>
   <si>
     <t>02 54 00</t>
@@ -4061,9 +4058,6 @@
     <t>a @click.stop.prevent="doThat"&gt;&lt;/a&gt;</t>
   </si>
   <si>
-    <t>.stop.prevent</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -4622,17 +4616,826 @@
       <t xml:space="preserve"> Полезно, когда мы не хотим, чтобы браузер дожидался окончания вызова обработчика, чтобы выполнить заложенную в него логику</t>
     </r>
   </si>
+  <si>
+    <t>Модификаторы клавиш</t>
+  </si>
+  <si>
+    <t>`https://vuejs.org/guide/essentials/event-handling.html#key-modifiers</t>
+  </si>
+  <si>
+    <t>.enter</t>
+  </si>
+  <si>
+    <t>.tab</t>
+  </si>
+  <si>
+    <t>.esc</t>
+  </si>
+  <si>
+    <t>.space</t>
+  </si>
+  <si>
+    <t>.up</t>
+  </si>
+  <si>
+    <t>.down</t>
+  </si>
+  <si>
+    <t>.left</t>
+  </si>
+  <si>
+    <t>.right</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;input @keyup.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page-down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="onPageDown" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;input @keyup</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.alt.enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="clear" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Модификаторы клавиш можно цеплять друг за друга</t>
+  </si>
+  <si>
+    <t>любые клавиши</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Возможно использовать любые клавишы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+пропись названия клавишы должна быть в kebab case</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Исключения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+.ctrl
+.alt
+.shift
+.meta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`@keyup.ctrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Модификаторы вроде .ctrl не отслеживают отпускание самой клавиши Ctrl, а проверяют:
+Была ли клавиша Ctrl нажата (удерживалась) в момент отпускания другой клавиши?
+Вы удерживаете Ctrl, затем нажимаете и отпускаете, например, S.
+→ Событие keyup произойдёт на клавише S, и при этом Ctrl всё ещё нажат.
+→ @keyup.ctrl сработает.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Исключения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+.exact</t>
+    </r>
+  </si>
+  <si>
+    <t>Сработает, даже если (другие системные клавиши) Alt или Shift нажаты
+Сработает, только если Ctrl нажат
+Сработает, если системные клавиши не нажаты</t>
+  </si>
+  <si>
+    <t>.middle</t>
+  </si>
+  <si>
+    <t>(captures both "Delete" and "Backspace" keys)</t>
+  </si>
+  <si>
+    <t>.delete</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;input type=text" 
+v-bind:placeholder="placeholderString"
+v-bind:v-value="inputValue"
+v-on:input="inputChangeHandler(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-on:keypress.enter="inputKeyPress"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+/&gt;
+…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно - удобно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Необязательно передавать параметром $event в метод, чтобы его затем получить в коде js</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@click.ctrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="onClick(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)"&gt;A&lt;/button&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$event.key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - название нажатой кнпоки
+&lt;button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@click.ctrl.exact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="onCtrlClick"&gt;A&lt;/button&gt;
+&lt;button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@click.exact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="onClick"&gt;A&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно - удобно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Необязательно передавать параметром </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в метод, чтобы его затем получить в коде js</t>
+    </r>
+  </si>
+  <si>
+    <t>Вызов нескольких функций/методов</t>
+  </si>
+  <si>
+    <t>chaining keys/buttons</t>
+  </si>
+  <si>
+    <t>chaining events</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Используется по умолчанию для всех событий @click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - по умолчанию специально он не указывается</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>`@click.right.prevent="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remove(i), log(item)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>`@click.right.prevent="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{remove(i); log(item)}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Возможность вызова нескольких методов для одного события</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">index.html
+&lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id="app"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;h1&gt;&lt;/h1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/div&gt; указываем селектор id = app</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.js
+Vue.createApp({
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//настройки приложения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}).mount(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'#app'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Достаточно начать писать html разметку</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.js
+Vue.createApp({
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> template: `
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;div&gt; class="card center"&gt;
+    &lt;h1&gt;{{ title }}&lt;/h1&gt;
+    &lt;button class="btn" @click="title = 'Изменили!'"&gt;Изменить&lt;/button&gt;
+   &lt;/div&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}).mount(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'#app'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">index.html
+&lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id="app"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;  
+&lt;/div&gt; указываем селектор id = app</t>
+    </r>
+  </si>
+  <si>
+    <t>Достаточно инициировать свойство template</t>
+  </si>
+  <si>
+    <t>Virtial DOM - то, что является основой vue.
+Все фреймворки решают одну проблему - оптимизацию общения javascript и dom дерева</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4815,6 +5618,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -4895,10 +5706,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4909,20 +5720,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4931,71 +5742,80 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{141A142D-D8A7-43F9-B8D2-54AA311FA1CB}"/>
     <cellStyle name="Обычный 2 2" xfId="2" xr:uid="{6AED7C1E-16D4-4B27-9CDE-4556C8555CBE}"/>
   </cellStyles>
@@ -5327,44 +6147,44 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V71"/>
+  <dimension ref="A2:V97"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:D21"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.08984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.54296875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.90625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="56.90625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.6328125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.08984375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="8"/>
-    <col min="21" max="21" width="67.6328125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.453125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.453125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.54296875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.36328125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.6328125" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="81.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="8"/>
+    <col min="21" max="21" width="67.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.44140625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.5546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.33203125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -5383,7 +6203,7 @@
       <c r="S2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5397,12 +6217,12 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -5414,557 +6234,961 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="13" t="s">
+    <row r="8" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>161</v>
-      </c>
       <c r="B12" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="C15" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
-        <v>204</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>202</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="33" t="s">
-        <v>205</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>203</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
     </row>
-    <row r="21" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="31" t="s">
-        <v>206</v>
+      <c r="C21" s="29" t="s">
+        <v>204</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
       <c r="C24" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B27" s="13"/>
       <c r="C27" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="B28" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="13" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B30" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B34" s="12"/>
       <c r="C34" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="13"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B37" s="12"/>
       <c r="C37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>113</v>
-      </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B39" s="12"/>
       <c r="C39" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B40" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B42" s="15" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
+      <c r="C42" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="B45" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="15" t="s">
+      <c r="D45" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="15" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
+      <c r="B53" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>200</v>
+      </c>
       <c r="D53" s="15"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
+    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="D59" s="15"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
+    <row r="61" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C61" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="D61" s="15"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
+    <row r="62" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="D62" s="15"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
+    <row r="63" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="D63" s="15"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>206</v>
+      </c>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D64" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="31" t="s">
+        <v>203</v>
+      </c>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
       <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C68" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
+      <c r="D69" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="9"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" s="9"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="9"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5978,48 +7202,48 @@
   </sheetPr>
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="19" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="100.453125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.81640625" style="21"/>
-    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
-    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
-    <col min="28" max="16384" width="8.81640625" style="19"/>
+    <col min="2" max="2" width="50.5546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="100.44140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="21"/>
+    <col min="21" max="21" width="67.77734375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -6038,131 +7262,131 @@
       <c r="S2" s="23"/>
       <c r="U2" s="23"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C3" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P3" s="19"/>
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P4" s="19"/>
       <c r="U4" s="19"/>
       <c r="V4" s="20"/>
     </row>
-    <row r="5" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>152</v>
-      </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="15"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="B13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" ht="216" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>142</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6179,43 +7403,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V58"/>
+  <dimension ref="A2:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="62.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.08984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.54296875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.90625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="56.90625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.6328125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.08984375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="67.6328125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.453125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.453125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.54296875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.36328125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.6328125" style="1"/>
+    <col min="2" max="2" width="62.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="56.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="67.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.44140625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.5546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.33203125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="G2" s="5"/>
@@ -6223,10 +7447,10 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
@@ -6237,492 +7461,118 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>7</v>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>169</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>267</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>174</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>269</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>177</v>
-      </c>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="C19" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C37" s="9"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C39" s="9"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C40" s="9"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C41" s="9"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C43" s="9"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C47" s="27"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C51" s="28" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" s="2" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B53" s="2" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B54" s="2" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B55" s="2" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B56" s="2" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B57" s="2" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B58" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/4 четверть_9_JavaScript_Vue 3.xlsx
+++ b/4 четверть_9_JavaScript_Vue 3.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE60BE8-B58D-4B39-A6E5-BC8D550376E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3DBDEE-8E74-47BA-B15D-EA86AF6F912F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="База" sheetId="12" r:id="rId1"/>
     <sheet name="Vue Css" sheetId="13" r:id="rId2"/>
     <sheet name="Теория" sheetId="14" r:id="rId3"/>
+    <sheet name="template" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="283">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -5406,20 +5407,417 @@
     <t>Достаточно инициировать свойство template</t>
   </si>
   <si>
-    <t>Virtial DOM - то, что является основой vue.
-Все фреймворки решают одну проблему - оптимизацию общения javascript и dom дерева</t>
+    <r>
+      <t xml:space="preserve">Virtial DOM - то, что является основой vue.
+Все фреймворки решают одну проблему - оптимизацию общения javascript и dom дерева
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Преимущества Virtual Dom! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Позволяет отрисовывать только один измененный элемент dom, а не весь блок целиком (что раньше делали более старые фреймворки Backbone, Marionet)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Фреймворки, использующие эту концепцию! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Vue, React 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Фреймворки, использующие другую концепцию!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Angular</t>
+    </r>
+  </si>
+  <si>
+    <t>Virtual DoM</t>
+  </si>
+  <si>
+    <t>Доступ к Virtual DOM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.js
+const h = Vue.h
+Vue.createApp({
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> render() {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  return h('название тэга', {class: 'card center'}, 'This is text content')
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}).mount(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'#app'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.js
+const h = Vue.h
+Vue.createApp({
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> render() {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  return h('div', {class: 'card center'}, 
+    h('h1', {}, this.title)
+  )
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}).mount(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'#app'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Шаг 1</t>
+  </si>
+  <si>
+    <t>Шаг 2</t>
+  </si>
+  <si>
+    <t>Шаг 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">app.js
+const h = Vue.h
+Vue.createApp({
+ methods: {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  changeTitle() {
+   this.title = 'Это заголовок'
+  }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> render() {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  return h('div', {class: 'card center'}, [
+    h('h1', {}, this.title),
+    h('button', {
+      class: 'btn',
+      onClick: () =&gt; {},
+      onSmthing: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this.changeSmthing</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }, 'Изменить')
+  ])
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}).mount(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'#app'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Js component template</t>
+  </si>
+  <si>
+    <t>import Vue from "vue";
+import template from "./MaxEditor.html?raw";
+export default Vue.extend({
+    template,
+    name: "maxEditor",
+    props: {
+        someArray: {
+            type: Array,
+            default: () =&gt; [],
+        },
+        someNumber: {
+            type: Number,
+            default: () =&gt; 0,
+        },
+        someString: {
+            type: String,
+            default: () =&gt; '',
+        },
+    },
+    mounted(){
+    },
+    data: () =&gt; ({
+        someVar: null,
+    }),
+    computed: {
+        someComputed: {
+            get: function () {
+            },
+            set: function (val) {
+            },
+        },
+    },
+    methods: {
+        someMethod(event, index) {}
+    },
+    watch: {
+        someProperty(newVal, oldVal) {}
+    }
+});</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5706,10 +6104,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5720,20 +6118,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5742,76 +6140,97 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6149,8 +6568,8 @@
   </sheetPr>
   <dimension ref="A2:V97"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:B8"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7188,7 +7607,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7202,8 +7621,8 @@
   </sheetPr>
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7238,10 +7657,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
@@ -7405,8 +7824,8 @@
   </sheetPr>
   <dimension ref="A2:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7470,7 +7889,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>132</v>
       </c>
     </row>
@@ -7486,7 +7905,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -7502,13 +7921,44 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D10" s="2" t="s">
+    <row r="10" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>272</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="288" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -7579,6 +8029,222 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C30:D44">
     <sortCondition ref="D30:D44"/>
   </sortState>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DE618A-9635-4194-B69D-D0533DA1C310}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:V45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="56.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="67.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.44140625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.5546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.33203125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="P3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="42"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="42"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="42"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/4 четверть_9_JavaScript_Vue 3.xlsx
+++ b/4 четверть_9_JavaScript_Vue 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3DBDEE-8E74-47BA-B15D-EA86AF6F912F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B77FC4-025C-4E3C-AAAE-B023B33C954A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2113,97 +2113,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Пояснение!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>v-model</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> заменяет </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>v-value + @change/@input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> позволяя не прописывать реализацию </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@change/@input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
     <t>Vue Css</t>
   </si>
   <si>
@@ -5757,6 +5666,98 @@
   </si>
   <si>
     <t>Js component template</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!
+Важно - удобно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> заменяет </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-value + @change/@input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> позволяя не прописывать реализацию </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@change/@input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
   </si>
   <si>
     <t>import Vue from "vue";
@@ -5776,6 +5777,10 @@
         someString: {
             type: String,
             default: () =&gt; '',
+        },
+        userMessagersOffByAdm: {
+          type: Boolean,
+          default: () =&gt; false
         },
     },
     mounted(){
@@ -5804,12 +5809,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6104,10 +6117,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6118,20 +6131,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -6140,79 +6153,76 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6220,14 +6230,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6568,8 +6584,8 @@
   </sheetPr>
   <dimension ref="A2:V97"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6695,14 +6711,14 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>68</v>
@@ -6711,33 +6727,33 @@
         <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>160</v>
-      </c>
       <c r="C12" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -6793,7 +6809,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="9"/>
@@ -6803,10 +6819,10 @@
         <v>101</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>193</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>66</v>
@@ -6814,7 +6830,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -6823,10 +6839,10 @@
       <c r="A21" s="2"/>
       <c r="B21" s="15"/>
       <c r="C21" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -7052,13 +7068,13 @@
         <v>126</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="15" t="s">
-        <v>256</v>
+      <c r="D44" s="42" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="216" x14ac:dyDescent="0.3">
@@ -7071,8 +7087,8 @@
       <c r="C45" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="15" t="s">
-        <v>130</v>
+      <c r="D45" s="42" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -7088,10 +7104,10 @@
         <v>20</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>19</v>
@@ -7102,10 +7118,10 @@
         <v>17</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>21</v>
@@ -7116,10 +7132,10 @@
         <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>22</v>
@@ -7130,10 +7146,10 @@
         <v>9</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>172</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>23</v>
@@ -7144,10 +7160,10 @@
         <v>18</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>174</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>24</v>
@@ -7158,10 +7174,10 @@
         <v>14</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>28</v>
@@ -7169,13 +7185,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D53" s="15"/>
     </row>
@@ -7184,27 +7200,27 @@
         <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -7212,10 +7228,10 @@
         <v>11</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>25</v>
@@ -7226,10 +7242,10 @@
         <v>12</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>27</v>
@@ -7240,10 +7256,10 @@
         <v>10</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>26</v>
@@ -7254,16 +7270,16 @@
         <v>13</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D59" s="15"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -7271,19 +7287,19 @@
     </row>
     <row r="61" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C61" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D61" s="15"/>
     </row>
     <row r="62" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D62" s="15"/>
     </row>
@@ -7292,26 +7308,26 @@
         <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="D63" s="15"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="9"/>
@@ -7321,10 +7337,10 @@
         <v>101</v>
       </c>
       <c r="B66" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>193</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>66</v>
@@ -7332,7 +7348,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -7341,15 +7357,15 @@
       <c r="A68" s="2"/>
       <c r="B68" s="15"/>
       <c r="C68" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -7359,229 +7375,229 @@
     </row>
     <row r="70" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C72" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="32" t="s">
         <v>218</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" s="29" t="s">
         <v>220</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C80" s="9"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C81" s="9"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C82" s="9"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C83" s="9"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C84" s="9"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A88" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B88" s="32"/>
       <c r="C88" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="D89" s="32" t="s">
         <v>257</v>
-      </c>
-      <c r="C89" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="D89" s="32" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C93" s="32" t="s">
         <v>246</v>
-      </c>
-      <c r="B93" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" s="33" t="s">
         <v>244</v>
-      </c>
-      <c r="C94" s="33" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>30</v>
@@ -7589,13 +7605,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -7603,11 +7619,11 @@
         <v>90</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7657,10 +7673,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
@@ -7683,7 +7699,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C3" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P3" s="19"/>
       <c r="U3" s="19"/>
@@ -7691,7 +7707,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P4" s="19"/>
       <c r="U4" s="19"/>
@@ -7700,38 +7716,38 @@
     <row r="5" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="15"/>
@@ -7739,61 +7755,61 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -7802,10 +7818,10 @@
         <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -7890,18 +7906,18 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="D6" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -7911,54 +7927,54 @@
     </row>
     <row r="8" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>274</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="288" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>279</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -8029,7 +8045,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C30:D44">
     <sortCondition ref="D30:D44"/>
   </sortState>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -8043,7 +8059,7 @@
   <dimension ref="A2:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8089,96 +8105,96 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="38"/>
+        <v>280</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="37"/>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="43" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="44" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C38" s="27" t="s">
